--- a/Test Data/TestdataDB.xlsx
+++ b/Test Data/TestdataDB.xlsx
@@ -179,7 +179,7 @@
     <t>vinodhinimanoha</t>
   </si>
   <si>
-    <t>vinoramku</t>
+    <t>vinoramkrr</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Data/TestdataDB.xlsx
+++ b/Test Data/TestdataDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinodhinima\Desktop\Scuba Training\NewTAFUpdated (2)\NewTAFUpdated\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinodhinima\Desktop\Scuba Training\NEW TAF\NewTAF\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -179,7 +179,7 @@
     <t>vinodhinimanoha</t>
   </si>
   <si>
-    <t>vinoramkrr</t>
+    <t>vinoramkrcco</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,7 @@
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>

--- a/Test Data/TestdataDB.xlsx
+++ b/Test Data/TestdataDB.xlsx
@@ -179,7 +179,7 @@
     <t>vinodhinimanoha</t>
   </si>
   <si>
-    <t>vinoramkrcco</t>
+    <t>vinotami</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Data/TestdataDB.xlsx
+++ b/Test Data/TestdataDB.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinodhinima\Desktop\Scuba Training\NEW TAF\NewTAF\Test Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="5145"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -179,7 +175,7 @@
     <t>vinodhinimanoha</t>
   </si>
   <si>
-    <t>vinotami</t>
+    <t>vinotamizhi</t>
   </si>
 </sst>
 </file>

--- a/Test Data/TestdataDB.xlsx
+++ b/Test Data/TestdataDB.xlsx
@@ -175,7 +175,7 @@
     <t>vinodhinimanoha</t>
   </si>
   <si>
-    <t>vinotamizhi</t>
+    <t>vinotamizhiniR</t>
   </si>
 </sst>
 </file>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Data/TestdataDB.xlsx
+++ b/Test Data/TestdataDB.xlsx
@@ -175,7 +175,7 @@
     <t>vinodhinimanoha</t>
   </si>
   <si>
-    <t>vinotamizhiniR</t>
+    <t>vinotamizhiniRa</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Data/TestdataDB.xlsx
+++ b/Test Data/TestdataDB.xlsx
@@ -175,7 +175,7 @@
     <t>vinodhinimanoha</t>
   </si>
   <si>
-    <t>vinotamizhiniRa</t>
+    <t>vinotamizhiniRam</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Data/TestdataDB.xlsx
+++ b/Test Data/TestdataDB.xlsx
@@ -175,7 +175,7 @@
     <t>vinodhinimanoha</t>
   </si>
   <si>
-    <t>vinotamizhiniRam</t>
+    <t>vinratamizhiniRam</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Data/TestdataDB.xlsx
+++ b/Test Data/TestdataDB.xlsx
@@ -175,7 +175,7 @@
     <t>vinodhinimanoha</t>
   </si>
   <si>
-    <t>vinratamizhiniRam</t>
+    <t>vinravinRam</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Data/TestdataDB.xlsx
+++ b/Test Data/TestdataDB.xlsx
@@ -175,7 +175,7 @@
     <t>vinodhinimanoha</t>
   </si>
   <si>
-    <t>vinravinRam</t>
+    <t>vinravinravin</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
